--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>read</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +737,26 @@
   </si>
   <si>
     <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码簿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,28 +1168,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
       <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
       <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
         <v>174</v>
-      </c>
-      <c r="J1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1184,60 +1200,60 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" t="s">
-        <v>165</v>
-      </c>
       <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
         <v>92</v>
       </c>
-      <c r="H2" t="s">
-        <v>93</v>
-      </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
         <v>121</v>
       </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
         <v>94</v>
       </c>
-      <c r="H3" t="s">
-        <v>95</v>
-      </c>
       <c r="I3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" t="s">
         <v>178</v>
-      </c>
-      <c r="J3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1248,28 +1264,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
       <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
         <v>131</v>
       </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
       <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
         <v>96</v>
       </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
       <c r="I4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" t="s">
         <v>180</v>
-      </c>
-      <c r="J4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1280,54 +1296,54 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
       <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
         <v>98</v>
       </c>
-      <c r="H5" t="s">
-        <v>99</v>
-      </c>
       <c r="I5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" t="s">
         <v>184</v>
-      </c>
-      <c r="J5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
         <v>125</v>
       </c>
-      <c r="F6" t="s">
-        <v>126</v>
-      </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1338,22 +1354,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
         <v>127</v>
       </c>
-      <c r="F7" t="s">
-        <v>128</v>
-      </c>
       <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
         <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1364,22 +1380,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
       <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
         <v>104</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1390,22 +1406,22 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
       <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" t="s">
         <v>137</v>
       </c>
-      <c r="F9" t="s">
-        <v>138</v>
-      </c>
       <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
         <v>106</v>
-      </c>
-      <c r="H9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1416,48 +1432,48 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
         <v>108</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="F11" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
         <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1468,22 +1484,22 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
         <v>182</v>
       </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
       <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
         <v>144</v>
       </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
       <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
         <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1494,16 +1510,16 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
         <v>146</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1514,36 +1530,36 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
       <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" t="s">
         <v>150</v>
-      </c>
-      <c r="F15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1554,16 +1570,16 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
       <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
         <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1574,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" t="s">
         <v>154</v>
-      </c>
-      <c r="F17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1594,164 +1610,178 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
       <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
       <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
         <v>157</v>
-      </c>
-      <c r="F19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
       <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
         <v>160</v>
-      </c>
-      <c r="F20" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
       <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
         <v>162</v>
-      </c>
-      <c r="F21" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
         <v>114</v>
       </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
       <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
         <v>168</v>
-      </c>
-      <c r="F23" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
       <c r="E24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" t="s">
         <v>170</v>
-      </c>
-      <c r="F24" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="D26" t="s">
-        <v>135</v>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,14 @@
   </si>
   <si>
     <t>号码簿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,7 +1156,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1774,6 +1782,12 @@
       </c>
       <c r="D26" t="s">
         <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,10 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,14 +761,58 @@
   </si>
   <si>
     <t>倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block chain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人,主要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,7 +873,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -875,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -907,27 +947,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,24 +981,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1152,23 +1156,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,10 +1187,10 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
         <v>89</v>
@@ -1200,7 +1205,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1214,10 +1219,10 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>91</v>
@@ -1232,7 +1237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -1246,10 +1251,10 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
         <v>93</v>
@@ -1264,7 +1269,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1278,10 +1283,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
         <v>95</v>
@@ -1296,7 +1301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1310,10 +1315,10 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>97</v>
@@ -1322,13 +1327,13 @@
         <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1342,10 +1347,10 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
         <v>100</v>
@@ -1353,8 +1358,14 @@
       <c r="H6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1368,10 +1379,10 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
         <v>101</v>
@@ -1379,8 +1390,14 @@
       <c r="H7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1394,10 +1411,10 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>103</v>
@@ -1405,8 +1422,14 @@
       <c r="H8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1420,10 +1443,10 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
         <v>105</v>
@@ -1431,8 +1454,14 @@
       <c r="H9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1446,10 +1475,10 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
         <v>107</v>
@@ -1458,7 +1487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -1472,10 +1501,10 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
         <v>109</v>
@@ -1484,7 +1513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1498,10 +1527,10 @@
         <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
         <v>111</v>
@@ -1510,7 +1539,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1524,13 +1553,13 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1544,13 +1573,13 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1564,13 +1593,13 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1584,13 +1613,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1604,13 +1633,13 @@
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1624,13 +1653,13 @@
         <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1644,18 +1673,18 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" t="s">
         <v>188</v>
-      </c>
-      <c r="B20" t="s">
-        <v>189</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
@@ -1664,18 +1693,18 @@
         <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
@@ -1684,13 +1713,13 @@
         <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1704,13 +1733,13 @@
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1724,13 +1753,13 @@
         <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1744,13 +1773,13 @@
         <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1764,13 +1793,13 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1784,18 +1813,24 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" t="s">
         <v>190</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1806,12 +1841,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,12 +1855,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,14 @@
   </si>
   <si>
     <t>重新启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1168,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1231,10 +1239,10 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1263,10 +1271,10 @@
         <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1295,10 +1303,10 @@
         <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1327,10 +1335,10 @@
         <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1359,10 +1367,10 @@
         <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1391,10 +1399,10 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1423,10 +1431,10 @@
         <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1455,10 +1463,10 @@
         <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1485,6 +1493,12 @@
       </c>
       <c r="H10" t="s">
         <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:10">

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,6 +813,14 @@
   </si>
   <si>
     <t>连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1176,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1525,6 +1533,12 @@
       </c>
       <c r="H11" t="s">
         <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:10">

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,14 @@
   </si>
   <si>
     <t>修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1565,6 +1573,12 @@
       </c>
       <c r="H12" t="s">
         <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:10">

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -829,6 +829,18 @@
   </si>
   <si>
     <t>扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pourcent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1600,6 +1612,9 @@
       <c r="F13" t="s">
         <v>144</v>
       </c>
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -1873,6 +1888,14 @@
       </c>
       <c r="F27" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,540 +307,690 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyebrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyeball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>father</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码簿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block chain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人,主要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pourcent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Painting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂开，断裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剔除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Reset</t>
-  </si>
-  <si>
-    <t>复位</t>
-  </si>
-  <si>
-    <t>keep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头发</t>
-  </si>
-  <si>
-    <t>clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服</t>
-  </si>
-  <si>
-    <t>pants</t>
-  </si>
-  <si>
-    <t>裤子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳朵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eyebrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eyeball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>脸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inspect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>core</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Absolute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Processor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>father</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>词典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码簿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CountDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block chain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区块链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主人,主要的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>developer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pourcent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1223,22 +1373,22 @@
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1255,27 +1405,27 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1287,22 +1437,22 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1319,22 +1469,22 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1351,22 +1501,22 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1383,22 +1533,22 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1415,22 +1565,22 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1447,22 +1597,22 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1479,22 +1629,22 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1511,27 +1661,27 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1543,22 +1693,22 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1569,28 +1719,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1607,13 +1757,16 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="J13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1630,18 +1783,30 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -1650,10 +1815,22 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1670,13 +1847,25 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1684,19 +1873,25 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1704,198 +1899,272 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>153</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>155</v>
       </c>
-      <c r="F19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
         <v>186</v>
       </c>
       <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>159</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>114</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
         <v>166</v>
       </c>
-      <c r="F23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
         <v>167</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
         <v>132</v>
       </c>
-      <c r="D25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
         <v>169</v>
       </c>
-      <c r="F25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,6 +991,54 @@
   </si>
   <si>
     <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换,转型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clockwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anti clockwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反时针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1394,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1354,8 +1402,8 @@
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1865,7 +1913,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1890,8 +1938,14 @@
       <c r="H17" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1910,8 +1964,14 @@
       <c r="F18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -1931,7 +1991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1951,7 +2011,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -1971,7 +2031,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1991,7 +2051,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2011,7 +2071,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2031,7 +2091,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2131,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2091,7 +2151,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -2111,7 +2171,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -2131,7 +2191,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -2144,8 +2204,14 @@
       <c r="D30" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -2158,13 +2224,31 @@
       <c r="D31" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="E31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
       <c r="C32" t="s">
         <v>234</v>
       </c>
       <c r="D32" t="s">
         <v>235</v>
+      </c>
+      <c r="E32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1039,6 +1039,14 @@
   </si>
   <si>
     <t>反时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obsolete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1402,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1963,6 +1971,12 @@
       </c>
       <c r="F18" t="s">
         <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" t="s">
+        <v>261</v>
       </c>
       <c r="I18" t="s">
         <v>258</v>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,6 +1047,30 @@
   </si>
   <si>
     <t>过时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Listener</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2004,6 +2028,12 @@
       <c r="F19" t="s">
         <v>156</v>
       </c>
+      <c r="G19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
@@ -2024,6 +2054,12 @@
       <c r="F20" t="s">
         <v>155</v>
       </c>
+      <c r="G20" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
@@ -2043,6 +2079,12 @@
       </c>
       <c r="F21" t="s">
         <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:10">

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,6 +1071,30 @@
   </si>
   <si>
     <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1423,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1505,10 +1529,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1537,10 +1561,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -1569,10 +1593,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -1601,10 +1625,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -1633,10 +1657,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -1665,10 +1689,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -1697,10 +1721,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -1729,10 +1753,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -1761,10 +1785,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -1793,10 +1817,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>179</v>
@@ -1825,10 +1849,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -1851,10 +1875,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -1883,10 +1907,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -1915,10 +1939,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -1947,10 +1971,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>237</v>
@@ -1979,10 +2003,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -2011,10 +2035,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
@@ -2037,10 +2061,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -2063,10 +2087,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
@@ -2089,10 +2113,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
@@ -2109,10 +2133,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
@@ -2129,10 +2153,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -2149,10 +2173,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
         <v>130</v>
@@ -2169,10 +2193,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>131</v>
@@ -2189,10 +2213,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>216</v>
@@ -2209,10 +2233,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>218</v>
@@ -2229,10 +2253,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>227</v>
@@ -2249,10 +2273,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>228</v>
@@ -2269,10 +2293,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
         <v>230</v>
@@ -2289,10 +2313,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
         <v>234</v>
@@ -2305,6 +2329,30 @@
       </c>
       <c r="F32" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1095,6 +1095,62 @@
   </si>
   <si>
     <t>中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Async</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Callback </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>援引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1449,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2130,6 +2186,12 @@
       <c r="F22" t="s">
         <v>160</v>
       </c>
+      <c r="G22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -2150,6 +2212,12 @@
       <c r="F23" t="s">
         <v>163</v>
       </c>
+      <c r="G23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H23" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
@@ -2170,6 +2238,12 @@
       <c r="F24" t="s">
         <v>166</v>
       </c>
+      <c r="G24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -2190,6 +2264,12 @@
       <c r="F25" t="s">
         <v>168</v>
       </c>
+      <c r="G25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
@@ -2210,6 +2290,12 @@
       <c r="F26" t="s">
         <v>169</v>
       </c>
+      <c r="G26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
@@ -2331,23 +2417,35 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>222</v>
       </c>
       <c r="B33" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>224</v>
       </c>
       <c r="B34" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>248</v>
       </c>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1151,6 +1151,46 @@
   </si>
   <si>
     <t>援引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定,不变的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几何体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1546,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1897,10 +1937,10 @@
         <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="J12" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1923,10 +1963,10 @@
         <v>142</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="J13" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1955,10 +1995,10 @@
         <v>210</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1987,10 +2027,10 @@
         <v>243</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2019,10 +2059,10 @@
         <v>245</v>
       </c>
       <c r="I16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2051,10 +2091,10 @@
         <v>247</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="J17" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2083,10 +2123,10 @@
         <v>261</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2114,6 +2154,12 @@
       <c r="H19" t="s">
         <v>263</v>
       </c>
+      <c r="I19" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
@@ -2316,6 +2362,12 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
+      <c r="G27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
@@ -2336,6 +2388,12 @@
       <c r="F28" t="s">
         <v>208</v>
       </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
@@ -2356,6 +2414,12 @@
       <c r="F29" t="s">
         <v>241</v>
       </c>
+      <c r="G29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
@@ -2375,6 +2439,12 @@
       </c>
       <c r="F30" t="s">
         <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:10">

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>OptionsBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1191,6 +1191,22 @@
   </si>
   <si>
     <t>几何体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1545,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1695,10 +1711,10 @@
         <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -1727,10 +1743,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>120</v>
@@ -1759,10 +1775,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>122</v>
@@ -1791,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>124</v>
@@ -1823,10 +1839,10 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>126</v>
@@ -1855,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>134</v>
@@ -1887,10 +1903,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>137</v>
@@ -1919,10 +1935,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>139</v>
@@ -1951,10 +1967,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
         <v>141</v>
@@ -1977,10 +1993,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>143</v>
@@ -2009,10 +2025,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>145</v>
@@ -2041,10 +2057,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>147</v>
@@ -2073,10 +2089,10 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>149</v>
@@ -2105,10 +2121,10 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
         <v>151</v>
@@ -2137,10 +2153,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>153</v>
@@ -2169,10 +2185,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>154</v>
@@ -2185,6 +2201,12 @@
       </c>
       <c r="H20" t="s">
         <v>265</v>
+      </c>
+      <c r="I20" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2195,10 +2217,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>157</v>
@@ -2221,10 +2243,10 @@
         <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>159</v>
@@ -2247,10 +2269,10 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>164</v>
@@ -2273,10 +2295,10 @@
         <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>165</v>
@@ -2299,10 +2321,10 @@
         <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
         <v>167</v>
@@ -2325,10 +2347,10 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
         <v>170</v>
@@ -2351,10 +2373,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
         <v>187</v>
@@ -2377,10 +2399,10 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" t="s">
         <v>207</v>
@@ -2403,10 +2425,10 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
         <v>240</v>
@@ -2429,10 +2451,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>250</v>
@@ -2455,10 +2477,10 @@
         <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
         <v>252</v>
@@ -2475,10 +2497,10 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
         <v>254</v>
@@ -2495,10 +2517,10 @@
         <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2509,10 +2531,10 @@
         <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2521,6 +2543,12 @@
       </c>
       <c r="B35" t="s">
         <v>249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
